--- a/Resources/Data/outdoor positioning.xlsx
+++ b/Resources/Data/outdoor positioning.xlsx
@@ -71,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -100,14 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -115,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -225,7 +229,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,7 +406,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,7 +458,7 @@
       <c r="A5" s="1">
         <v>0.8262152777777777</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0.82690972222222225</v>
       </c>
       <c r="D5" t="s">
@@ -471,7 +475,7 @@
       <c r="A6" s="2">
         <v>0.82476851851851851</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0.82546296296296295</v>
       </c>
       <c r="D6" t="s">

--- a/Resources/Data/outdoor positioning.xlsx
+++ b/Resources/Data/outdoor positioning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>indoor</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>infinite loop</t>
+  </si>
+  <si>
+    <t>gemiddelde</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,12 +421,12 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -437,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.82806712962962958</v>
       </c>
@@ -454,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.8262152777777777</v>
       </c>
@@ -471,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>0.82476851851851851</v>
       </c>
@@ -484,8 +490,11 @@
       <c r="G6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.82361111111111107</v>
       </c>
@@ -496,7 +505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>0.82245370370370363</v>
       </c>
@@ -507,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>0.81967592592592586</v>
       </c>
@@ -518,12 +527,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>0.81041666666666667</v>
       </c>
@@ -537,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>0.81215277777777783</v>
       </c>
@@ -554,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>0.81371527777777775</v>
       </c>
@@ -565,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>0.81574074074074077</v>
       </c>
@@ -576,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>0.81701388888888893</v>
       </c>
@@ -588,7 +597,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>0.81846064814814812</v>
       </c>
       <c r="B17" s="2">
@@ -729,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>0.77060185185185182</v>
       </c>
@@ -743,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>0.77251157407407411</v>
       </c>
@@ -757,7 +766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>0.77465277777777775</v>
       </c>
@@ -771,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>0.79305555555555562</v>
       </c>
@@ -783,6 +792,91 @@
       </c>
       <c r="D36" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41">
+        <v>0.61</v>
+      </c>
+      <c r="D41">
+        <v>52.27</v>
+      </c>
+      <c r="G41">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42">
+        <v>1.54</v>
+      </c>
+      <c r="D42">
+        <v>47.13</v>
+      </c>
+      <c r="G42">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43">
+        <v>3.09</v>
+      </c>
+      <c r="D43">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44">
+        <v>1.69</v>
+      </c>
+      <c r="D44">
+        <v>45.85</v>
+      </c>
+      <c r="G44">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45">
+        <v>0.47</v>
+      </c>
+      <c r="D45">
+        <v>53.36</v>
+      </c>
+      <c r="G45">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46">
+        <v>0.61</v>
+      </c>
+      <c r="D46">
+        <v>50.44</v>
+      </c>
+      <c r="G46">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <f>SUM(C41:C46)/6</f>
+        <v>1.335</v>
+      </c>
+      <c r="D47" s="3">
+        <f>SUM(D41:D46)/6</f>
+        <v>48.155000000000001</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <f t="shared" ref="E47:G47" si="0">SUM(G41:G46)/6</f>
+        <v>0.82500000000000007</v>
       </c>
     </row>
   </sheetData>
